--- a/biology/Zoologie/Deltasaurus/Deltasaurus.xlsx
+++ b/biology/Zoologie/Deltasaurus/Deltasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deltasaurus est un  genre éteint d'amphibiens préhistoriques de l'ordre des temnospondyles qui ont vécu au Trias supérieur.
 C'est l'animal le plus commun dans les schistes de Blina (d), un dépôt de fossiles à l'extrémité est de la chaîne d'Erskine dans la région du Kimberley en Australie-Occidentale. Un spécimen a également été découvert dans le gisement de Knocklofty en Tasmanie.
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Deltasaurus a été créé en 1965 par le paléontologue et herpétologiste américain John William Cosgriff (d) (1931-1985) avec comme espèce type Deltasaurus kimberleyensis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Deltasaurus a été créé en 1965 par le paléontologue et herpétologiste américain John William Cosgriff (d) (1931-1985) avec comme espèce type Deltasaurus kimberleyensis.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (20 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (20 juillet 2021) :
 † Deltasaurus kimberleyensis Cosgriff, 1965 - espèce type
 † Deltasaurus pustulatus Cosgriff, 1965</t>
         </is>
@@ -576,9 +592,11 @@
           <t>Cladogramme des Stereospondyli</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant des Stereospondyli est basée selon Dias-da-Silva &amp; Marsicano (2011)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant des Stereospondyli est basée selon Dias-da-Silva &amp; Marsicano (2011) :
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) J. W. Cosgriff, « A new genus of Temnospondyli from the Triassic of Western Australia », Journal of the Royal Society of Western Australia, Royal Society of Western Australia (d), vol. 48,‎ 1965, p. 65-90 (ISSN 0035-922X, OCLC 07520165, lire en ligne)</t>
         </is>
